--- a/sudoku_output.xlsx
+++ b/sudoku_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Solution #2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Solution_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,31 +467,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -499,31 +499,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -531,31 +531,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -563,31 +563,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -595,22 +595,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
@@ -619,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -627,31 +627,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -659,31 +659,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -691,31 +691,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -726,28 +726,28 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
